--- a/Robot Procesamiento TERPEL/Config/Archivos/UiTree2.xlsx
+++ b/Robot Procesamiento TERPEL/Config/Archivos/UiTree2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Path</x:t>
   </x:si>
@@ -40,103 +40,76 @@
     <x:t>Material</x:t>
   </x:si>
   <x:si>
-    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244595</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001-042-000244595</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244595</x:t>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000244304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244304</x:t>
   </x:si>
   <x:si>
     <x:t>06-00000056</x:t>
   </x:si>
   <x:si>
-    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244593</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001-042-000244593</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244593</x:t>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000244297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000244296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10086057 R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000244295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10086038 R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000244294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10086035 R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000244293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10086024 R</x:t>
   </x:si>
   <x:si>
     <x:t>06-00000055</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001-042-000244306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001-042-000244304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001-042-000244297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244296</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001-042-000244296</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244296</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10086057 R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001-042-000244295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10086038 R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001-042-000244294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10086035 R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244293</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001-042-000244293</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244293</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10086024 R</x:t>
   </x:si>
   <x:si>
     <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000244129</x:t>
@@ -602,13 +575,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
-        <x:v>10086102</x:v>
+        <x:v>10086087</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>23500</x:v>
+        <x:v>23520</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>4400097566</x:v>
@@ -628,39 +601,39 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
-        <x:v>10086107</x:v>
+        <x:v>10086097</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>7800</x:v>
+        <x:v>23530</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>4400097565</x:v>
+        <x:v>4400097566</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
-        <x:v>10086105</x:v>
-      </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>23510</x:v>
+        <x:v>23540</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>4400097566</x:v>
@@ -679,14 +652,14 @@
       <x:c r="C5" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="n">
-        <x:v>10086087</x:v>
+      <x:c r="D5" s="0" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>23520</x:v>
+        <x:v>23550</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>4400097566</x:v>
@@ -697,22 +670,22 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="n">
-        <x:v>10086097</x:v>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>23530</x:v>
+        <x:v>23560</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>4400097566</x:v>
@@ -723,48 +696,48 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>23540</x:v>
+        <x:v>7810</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>4400097566</x:v>
+        <x:v>4400097565</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>10086434</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>23550</x:v>
+        <x:v>23700</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>4400097566</x:v>
@@ -775,54 +748,54 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>10086488</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>23560</x:v>
+        <x:v>8010</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>4400097566</x:v>
+        <x:v>4400097565</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>10086493</x:v>
+      </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>7810</x:v>
+        <x:v>8020</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>4400097565</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -836,13 +809,13 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>10086434</x:v>
+        <x:v>10086491</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>23700</x:v>
+        <x:v>23710</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>4400097566</x:v>
@@ -862,19 +835,19 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>10086488</x:v>
+        <x:v>10086505</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>8010</x:v>
+        <x:v>8030</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>4400097565</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -888,19 +861,19 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>10086493</x:v>
+        <x:v>10086504</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>8020</x:v>
+        <x:v>8040</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>4400097565</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
@@ -914,19 +887,19 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>10086491</x:v>
+        <x:v>10086516</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>23710</x:v>
+        <x:v>8050</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
-        <x:v>4400097566</x:v>
+        <x:v>4400097565</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -940,36 +913,36 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>10086505</x:v>
+        <x:v>10086521</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>8030</x:v>
+        <x:v>8060</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>4400097565</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
         <x:v>10086504</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
         <x:v>8040</x:v>
@@ -978,24 +951,24 @@
         <x:v>4400097565</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
         <x:v>10086516</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
         <x:v>8050</x:v>
@@ -1004,24 +977,24 @@
         <x:v>4400097565</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
         <x:v>10086521</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
         <x:v>8060</x:v>
@@ -1030,7 +1003,7 @@
         <x:v>4400097565</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
